--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raffi\Documents\GitHub\Tugasbesar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raffi\Documents\GitHub\Rice-Leaf-Disease-Classification-CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68497069-7E6E-4027-84FA-B9E3DB0A4153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E876DC-716C-4C1F-B191-2DD058839B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{BE3ECB40-A85F-4D1D-9BB0-EF812BEC4A5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE3ECB40-A85F-4D1D-9BB0-EF812BEC4A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +504,7 @@
         <v>44516</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -524,7 +524,7 @@
         <v>44516</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -564,7 +564,7 @@
         <v>44516</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -584,7 +584,7 @@
         <v>44516</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -601,7 +601,7 @@
         <v>44544</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -618,7 +618,7 @@
         <v>44545</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raffi\Documents\GitHub\Rice-Leaf-Disease-Classification-CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E876DC-716C-4C1F-B191-2DD058839B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBA413E-8E58-4D52-93B9-042BE1407230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE3ECB40-A85F-4D1D-9BB0-EF812BEC4A5C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -49,59 +49,80 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Preprocessing Data</t>
-  </si>
-  <si>
-    <t>Cleansing Data</t>
-  </si>
-  <si>
-    <t>Modelling Data</t>
-  </si>
-  <si>
-    <t>Augmentasi Data</t>
-  </si>
-  <si>
-    <t>Normalisasi Data</t>
-  </si>
-  <si>
-    <t>Fontend Web</t>
-  </si>
-  <si>
-    <t>Config Flask</t>
-  </si>
-  <si>
     <t>Raffi</t>
   </si>
   <si>
     <t>Hanif</t>
   </si>
   <si>
-    <t>Waiting</t>
-  </si>
-  <si>
-    <t>Target Selesai</t>
-  </si>
-  <si>
-    <t>Backend Web</t>
-  </si>
-  <si>
-    <t>debug</t>
-  </si>
-  <si>
-    <t>solusi</t>
-  </si>
-  <si>
-    <t>lama waktu handle</t>
-  </si>
-  <si>
     <t>Finised</t>
+  </si>
+  <si>
+    <t>Modul</t>
+  </si>
+  <si>
+    <t>Modul 2</t>
+  </si>
+  <si>
+    <t>Modul 3</t>
+  </si>
+  <si>
+    <t>Modul 4</t>
+  </si>
+  <si>
+    <t>Modul 5</t>
+  </si>
+  <si>
+    <t>Modul 6</t>
+  </si>
+  <si>
+    <t>Preprocessing</t>
+  </si>
+  <si>
+    <t>Model 1,2</t>
+  </si>
+  <si>
+    <t>Model 1,3</t>
+  </si>
+  <si>
+    <t>Model 1,4</t>
+  </si>
+  <si>
+    <t>Model 1,5</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Config flask</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Data yang terlalu sedikit</t>
+  </si>
+  <si>
+    <t>Dilakukan Augmentasi</t>
+  </si>
+  <si>
+    <t>Solusi</t>
+  </si>
+  <si>
+    <t>Lama Waktu Handle</t>
+  </si>
+  <si>
+    <t>2 hari</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +130,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,9 +163,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,201 +491,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86C45E6-C388-4D4C-B338-F589943ECF5C}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="3" width="12.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44515</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44491</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C3" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44493</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44515</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44491</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44493</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44515</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44491</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C7" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44493</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44543</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44544</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C9" s="2">
+        <v>44544</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44554</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44515</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44516</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44516</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C10" s="2">
+        <v>44527</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44515</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44516</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44516</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44520</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44522</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44522</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44515</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44516</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44516</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44515</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44516</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44516</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44537</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44544</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44538</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44545</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44539</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44546</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raffi\Documents\GitHub\Rice-Leaf-Disease-Classification-CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBA413E-8E58-4D52-93B9-042BE1407230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303AB36A-90B3-4B02-A856-E969B62C46D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE3ECB40-A85F-4D1D-9BB0-EF812BEC4A5C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -165,9 +165,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -175,6 +172,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,7 +494,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,276 +509,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>44515</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>44491</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>44522</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>44493</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>44515</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>44491</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>44522</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>44493</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>44515</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>44491</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>44522</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>44493</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>44543</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>44544</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>44544</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>44554</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
-        <v>44527</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="C10" s="1">
+        <v>44555</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="C11" s="1">
+        <v>44555</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="C12" s="1">
+        <v>44562</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44563</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
